--- a/1_variable.js/7_WebScraping/espnScraper/IPL/Sunrisers Hyderabad/Jason Holder.xlsx
+++ b/1_variable.js/7_WebScraping/espnScraper/IPL/Sunrisers Hyderabad/Jason Holder.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -555,9 +555,149 @@
         <v>Kings XI won by 12 runs</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Jason Holder</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="D6" t="str">
+        <v>24</v>
+      </c>
+      <c r="E6" t="str">
+        <v>20</v>
+      </c>
+      <c r="F6" t="str">
+        <v>3</v>
+      </c>
+      <c r="G6" t="str">
+        <v>0</v>
+      </c>
+      <c r="H6" t="str">
+        <v>120.00</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Nov 6 2020</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Sunrisers won by 6 wickets (with 2 balls remaining)</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Jason Holder</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D7" t="str">
+        <v>5</v>
+      </c>
+      <c r="E7" t="str">
+        <v>8</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <v>62.50</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Oct 24 2020</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Kings XI won by 12 runs</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Jason Holder</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="D8" t="str">
+        <v>26</v>
+      </c>
+      <c r="E8" t="str">
+        <v>10</v>
+      </c>
+      <c r="F8" t="str">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <v>3</v>
+      </c>
+      <c r="H8" t="str">
+        <v>260.00</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Oct 31 2020</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Sunrisers won by 5 wickets (with 35 balls remaining)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Jason Holder</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="D9" t="str">
+        <v>11</v>
+      </c>
+      <c r="E9" t="str">
+        <v>15</v>
+      </c>
+      <c r="F9" t="str">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <v>0</v>
+      </c>
+      <c r="H9" t="str">
+        <v>73.33</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Nov 8 2020</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Capitals won by 17 runs</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
   </ignoredErrors>
 </worksheet>
 </file>